--- a/hardware/electronics/BOM/20190904/KELPIE_LOGIC_PCB.xlsx
+++ b/hardware/electronics/BOM/20190904/KELPIE_LOGIC_PCB.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1567629206" val="967" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1567629206" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1567629206"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1567629206"/>
+      <pm:revision xmlns:pm="smNativeData" day="1567630683" val="967" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1567630683" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1567630683"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1567630683"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Qty</t>
   </si>
@@ -43,21 +43,6 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>OC_MOUSER</t>
-  </si>
-  <si>
-    <t>PACKAGE</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>FERRITE600_TEENSY</t>
   </si>
   <si>
@@ -70,12 +55,6 @@
     <t>BLM18AG601SN1D</t>
   </si>
   <si>
-    <t>81-BLM11A601S</t>
-  </si>
-  <si>
-    <t>Ferrite</t>
-  </si>
-  <si>
     <t>MK20DX256VLH7</t>
   </si>
   <si>
@@ -85,15 +64,6 @@
     <t>K3</t>
   </si>
   <si>
-    <t>841-MK20DX256VLH7</t>
-  </si>
-  <si>
-    <t>LQFP-64</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
     <t>MKL04Z32VLC4</t>
   </si>
   <si>
@@ -106,9 +76,6 @@
     <t>IC_MKL04Z32_TQFP32</t>
   </si>
   <si>
-    <t>LQFP-32</t>
-  </si>
-  <si>
     <t>TACT_SWITCH</t>
   </si>
   <si>
@@ -118,7 +85,7 @@
     <t>S2</t>
   </si>
   <si>
-    <t>DONE</t>
+    <t>PTS820J25MSMTRLFS</t>
   </si>
   <si>
     <t>USB_MICRO-B</t>
@@ -142,21 +109,18 @@
     <t>C36</t>
   </si>
   <si>
+    <t>08053C154KAT2A</t>
+  </si>
+  <si>
     <t>0.1UF</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1, C3, C8, C9, C10, C14, C27, C28, C29, C35</t>
   </si>
   <si>
     <t>C0805C104Z3VACTU</t>
   </si>
   <si>
-    <t>1.0UF</t>
-  </si>
-  <si>
-    <t>C31, C32</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -166,6 +130,9 @@
     <t>R13, R14</t>
   </si>
   <si>
+    <t>RNCP0805FTD10K0</t>
+  </si>
+  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -181,15 +148,6 @@
     <t>ABL-16.000MHz-B1U</t>
   </si>
   <si>
-    <t>815-ABL-16-B1U</t>
-  </si>
-  <si>
-    <t>HC-49US</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
     <t>1N4148WX-TP</t>
   </si>
   <si>
@@ -202,7 +160,7 @@
     <t>1UF</t>
   </si>
   <si>
-    <t>C2, C5</t>
+    <t>C2, C5, C31, C32</t>
   </si>
   <si>
     <t xml:space="preserve">C0805C104Z3VACTU  </t>
@@ -217,10 +175,16 @@
     <t>R11, R12</t>
   </si>
   <si>
+    <t>RC0805FR-072K2L</t>
+  </si>
+  <si>
     <t>2.2UF</t>
   </si>
   <si>
-    <t xml:space="preserve"> C34</t>
+    <t>C7, C13, C26, C33, C34</t>
+  </si>
+  <si>
+    <t>CL21B105KAFNNNE</t>
   </si>
   <si>
     <t>220OHM</t>
@@ -247,6 +211,9 @@
     <t>U5</t>
   </si>
   <si>
+    <t>23LC1024T-I/ST</t>
+  </si>
+  <si>
     <t>30_PIN_CONNECTOR_MALEFLEX_CONNECTOR</t>
   </si>
   <si>
@@ -271,13 +238,7 @@
     <t>G4</t>
   </si>
   <si>
-    <t xml:space="preserve"> CFS206-32.768KDZF-UB</t>
-  </si>
-  <si>
-    <t>695-CFS206-327KF-U</t>
-  </si>
-  <si>
-    <t>TC-26H</t>
+    <t>CFS206-32.768KDZF-UB</t>
   </si>
   <si>
     <t>33OHM</t>
@@ -286,13 +247,13 @@
     <t>R5, R6</t>
   </si>
   <si>
+    <t>ESR10EZPJ330</t>
+  </si>
+  <si>
     <t>470OHM</t>
   </si>
   <si>
-    <t>R7, R8</t>
-  </si>
-  <si>
-    <t>R2</t>
+    <t>R2, R7, R8</t>
   </si>
   <si>
     <t>ESR10EZPJ471</t>
@@ -319,6 +280,9 @@
     <t>D6</t>
   </si>
   <si>
+    <t>AP7313-33SRG-7</t>
+  </si>
+  <si>
     <t>FER600</t>
   </si>
   <si>
@@ -328,6 +292,9 @@
     <t>L3</t>
   </si>
   <si>
+    <t>MPZ2012S601AT000</t>
+  </si>
+  <si>
     <t>MCP1825S</t>
   </si>
   <si>
@@ -376,6 +343,9 @@
     <t>D5</t>
   </si>
   <si>
+    <t>LO R976-PS-1</t>
+  </si>
+  <si>
     <t>PJ-002A</t>
   </si>
   <si>
@@ -385,9 +355,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>Manufacturer recommendations</t>
-  </si>
-  <si>
     <t>SGTL5000_32QFN</t>
   </si>
   <si>
@@ -397,6 +364,9 @@
     <t>U4</t>
   </si>
   <si>
+    <t>SGTL5000XNAA3R2</t>
+  </si>
+  <si>
     <t>STEREO_LINE_OUT_JACK</t>
   </si>
   <si>
@@ -409,15 +379,6 @@
     <t>ACJS-MHDR</t>
   </si>
   <si>
-    <t>SWD_CONNECTOR</t>
-  </si>
-  <si>
-    <t>1X5HEADER</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>SWITCHCRAFT_PHONEJACK</t>
   </si>
   <si>
@@ -428,19 +389,13 @@
   </si>
   <si>
     <t xml:space="preserve">35RASMT4BHNTRX  </t>
-  </si>
-  <si>
-    <t>TEST_POINT</t>
-  </si>
-  <si>
-    <t>U$2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -449,6 +404,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -458,7 +414,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1567629206" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1567630683" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -480,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1567629206" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1567630683" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -502,7 +458,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1567629206"/>
+          <pm:border xmlns:pm="smNativeData" id="1567630683"/>
         </ext>
       </extLst>
     </border>
@@ -521,7 +477,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1567629206"/>
+          <pm:border xmlns:pm="smNativeData" id="1567630683"/>
         </ext>
       </extLst>
     </border>
@@ -529,8 +485,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -538,7 +495,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1567629206" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1567630683" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -802,23 +759,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
-    <col min="1" max="2" width="10.000000" style="0"/>
-    <col min="3" max="3" width="22.909910" customWidth="1" style="0"/>
-    <col min="4" max="4" width="12.837838" customWidth="1" style="0"/>
-    <col min="5" max="5" width="10.000000" style="0"/>
-    <col min="6" max="6" width="36.351351" customWidth="1" style="0"/>
-    <col min="7" max="12" width="10.000000" style="0"/>
+    <col min="1" max="5" width="10.000000" style="0"/>
+    <col min="6" max="6" width="17.162162" customWidth="1" style="1"/>
+    <col min="7" max="7" width="10.000000" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,98 +788,59 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="n">
-        <v>603</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -933,33 +848,33 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -967,356 +882,347 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>805</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="n">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="n">
         <v>805</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>805</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>885012007030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>220</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="n">
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="n">
         <v>805</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>470</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D21" t="n">
+        <v>805</v>
+      </c>
+      <c r="E21" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
+      <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" t="n">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="n">
-        <v>805</v>
-      </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="n">
-        <v>470</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="n">
-        <v>805</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>470</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -1325,18 +1231,18 @@
         <v>805</v>
       </c>
       <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
@@ -1347,11 +1253,11 @@
       <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1273,11 @@
       <c r="E26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1" t="n">
+        <v>473340001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="n">
         <v>1</v>
       </c>
@@ -1376,78 +1285,84 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" t="n">
-        <v>805</v>
       </c>
       <c r="E27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="F27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="n">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="n">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="n">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="n">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -1458,126 +1373,35 @@
       <c r="E31" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="F31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="n">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F32" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1567629206" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1567630683" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1586,14 +1410,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1567629206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1567629206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1567630683" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1567630683" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1567629206" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1567630683" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
